--- a/medicine/Enfance/Jeunesse-Pocket/Jeunesse-Pocket.xlsx
+++ b/medicine/Enfance/Jeunesse-Pocket/Jeunesse-Pocket.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jeunesse-Pocket est une collection française de livres de poches pour la jeunesse, parue aux éditions G. P. de 1963 à 1965. 
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le slogan de la collection en 1964 est : « La collection de poche des teen-agers »
 Au total, 43 titres ont été édités.
@@ -544,7 +558,9 @@
           <t>Description matérielle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les livres brochés, de format 17x12 cm, comprennent 192 pages, vingt illustrations, et sont imprimés sur papier ivoire, et ont une couverture souple illustrée et pelliculée.
 En 1964, les livres coûtent 2,75 F (nouveau franc) (tarif libraire conseillé).
@@ -576,7 +592,9 @@
           <t>Liste des titres publiés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(La numérotation apparaît sur le livre)
 1. Alain-Fournier, Le Grand Meaulnes. Illustrations de Paul Durand, 1963.
@@ -631,7 +649,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>lajoieparleslivres.bnf.fr
 Catalogue BnF
